--- a/assets/form/TOUDZ.xlsx
+++ b/assets/form/TOUDZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\ehz1\assets\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D7577-5233-4A9A-9FEB-703729BEB91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE994A-5E6D-4410-BC97-3DA038271B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C821D409-2C5A-4A79-ABA2-55294FE5892B}"/>
+    <workbookView xWindow="3180" yWindow="2445" windowWidth="13950" windowHeight="8475" xr2:uid="{C821D409-2C5A-4A79-ABA2-55294FE5892B}"/>
   </bookViews>
   <sheets>
     <sheet name="TOUDZ" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
-  <si>
-    <t>"____"___________ 20____г.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Состояние</t>
   </si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>Замечания</t>
-  </si>
-  <si>
-    <t>Протокол обслуживания УДЗ №____</t>
   </si>
   <si>
     <r>
@@ -180,105 +174,6 @@
   </si>
   <si>
     <t>СДЗ №2</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>todoDate</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>marka1</t>
-  </si>
-  <si>
-    <t>sostojanie1</t>
-  </si>
-  <si>
-    <t>potencrels1</t>
-  </si>
-  <si>
-    <t>potenctrub1</t>
-  </si>
-  <si>
-    <t>edsudz1</t>
-  </si>
-  <si>
-    <t>naprshunt1</t>
-  </si>
-  <si>
-    <t>tokshunt1</t>
-  </si>
-  <si>
-    <t>izmnaprshunt1</t>
-  </si>
-  <si>
-    <t>soprotudz1</t>
-  </si>
-  <si>
-    <t>elecshet1</t>
-  </si>
-  <si>
-    <t>narabshet1</t>
-  </si>
-  <si>
-    <t>foto1</t>
-  </si>
-  <si>
-    <t>zamech1</t>
-  </si>
-  <si>
-    <t>marka2</t>
-  </si>
-  <si>
-    <t>sostojanie2</t>
-  </si>
-  <si>
-    <t>potencrels2</t>
-  </si>
-  <si>
-    <t>potenctrub2</t>
-  </si>
-  <si>
-    <t>edsudz2</t>
-  </si>
-  <si>
-    <t>naprshunt2</t>
-  </si>
-  <si>
-    <t>tokshunt2</t>
-  </si>
-  <si>
-    <t>izmnaprshunt2</t>
-  </si>
-  <si>
-    <t>soprotudz2</t>
-  </si>
-  <si>
-    <t>elecshet2</t>
-  </si>
-  <si>
-    <t>narabshet2</t>
-  </si>
-  <si>
-    <t>foto2</t>
-  </si>
-  <si>
-    <t>zamech2</t>
   </si>
 </sst>
 </file>
@@ -405,17 +300,21 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,18 +327,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377550A4-3CFF-4A76-AD35-1CE09D3621EC}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,475 +664,234 @@
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="D12" s="2"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="F9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="F10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="F12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="F13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="2"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="F14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="F16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="F17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="F18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
